--- a/calc/doc/詳細設計仕様書.xlsx
+++ b/calc/doc/詳細設計仕様書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenmotsu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenmotsu\Desktop\Calculator\calc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>書式</t>
     <rPh sb="0" eb="2">
@@ -103,10 +103,6 @@
     <rPh sb="0" eb="2">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>char[] toPolishNotation(char[] formula)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -153,22 +149,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>char[] : 後置記法に変換した式</t>
-    <rPh sb="9" eb="11">
-      <t>コウチ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キホウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>シキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>引数に指定された式を後置記法に変換する。</t>
     <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
@@ -195,10 +175,6 @@
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>boolean validateInputFormula(char[] formula)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -342,20 +318,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>int calcPolishNotation(char[] formula)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int : 計算結果</t>
-    <rPh sb="6" eb="8">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>true : 計算結果が正当</t>
     <rPh sb="7" eb="9">
       <t>ケイサン</t>
@@ -392,10 +354,6 @@
     <rPh sb="11" eb="13">
       <t>ケッカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>boolean validateCalcResult(int clacResult)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -429,14 +387,6 @@
   </si>
   <si>
     <t>polishnotation.c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>validater.c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>validator.c</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -534,213 +484,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1. 引数を後置記法に変換する。
- 1.1. 引数の配列を先頭から順に読んでいく
-  - [「(」の場合]、配列Bの後尾に格納。
-  - [「)」の場合]、配列Bの後尾から「(」がでるまで検索し、
-     配列Aの後尾に格納(「()」は含まない)。
-  - [数字の場合]、配列Aの後尾に格納。
-  - [演算子の場合]、配列Bの後尾に格納。
-     格納する際に後尾の演算子と優先順位を比較し、同じまた
-     は高ければ配列B後尾を配列Aの後尾に格納。
- 1.2. 引数の配列を全て読んだら、配列Bを後尾から順に配列A  
-        の後尾に格納。
-2. 結果用配列Aを戻り値として返す。
-配列A : 結果用
-配列B : 一時保管用
-演算子の優先順位 : 「/」 &gt; 「*」 &gt; 「+」=「-」</t>
-    <rPh sb="3" eb="5">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウチ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キホウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>セントウ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>コウビ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>コウビ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>コウビ</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="142" eb="144">
-      <t>コウビ</t>
-    </rPh>
-    <rPh sb="145" eb="147">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="154" eb="157">
-      <t>エンザンシ</t>
-    </rPh>
-    <rPh sb="162" eb="164">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="166" eb="168">
-      <t>コウビ</t>
-    </rPh>
-    <rPh sb="169" eb="171">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="178" eb="180">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="182" eb="183">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="184" eb="186">
-      <t>コウビ</t>
-    </rPh>
-    <rPh sb="187" eb="190">
-      <t>エンザンシ</t>
-    </rPh>
-    <rPh sb="191" eb="193">
-      <t>ユウセン</t>
-    </rPh>
-    <rPh sb="193" eb="195">
-      <t>ジュンイ</t>
-    </rPh>
-    <rPh sb="196" eb="198">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="200" eb="201">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="211" eb="212">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="215" eb="217">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="218" eb="220">
-      <t>コウビ</t>
-    </rPh>
-    <rPh sb="225" eb="227">
-      <t>コウビ</t>
-    </rPh>
-    <rPh sb="238" eb="240">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="241" eb="243">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="244" eb="245">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="246" eb="247">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="251" eb="253">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="255" eb="257">
-      <t>コウビ</t>
-    </rPh>
-    <rPh sb="259" eb="260">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="261" eb="263">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="276" eb="278">
-      <t>コウビ</t>
-    </rPh>
-    <rPh sb="279" eb="281">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="286" eb="288">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="288" eb="289">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="289" eb="291">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="299" eb="300">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="304" eb="306">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="310" eb="312">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="312" eb="313">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="314" eb="316">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="320" eb="322">
-      <t>イチジ</t>
-    </rPh>
-    <rPh sb="322" eb="324">
-      <t>ホカン</t>
-    </rPh>
-    <rPh sb="324" eb="325">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="326" eb="329">
-      <t>エンザンシ</t>
-    </rPh>
-    <rPh sb="330" eb="332">
-      <t>ユウセン</t>
-    </rPh>
-    <rPh sb="332" eb="334">
-      <t>ジュンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1. 引数を四則演算。
  1.1. 引数の配列を先頭から順に読んでいく。
   - [数字の場合]、計算用配列の後尾に格納。
@@ -878,6 +621,237 @@
     </rPh>
     <rPh sb="186" eb="187">
       <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool validateInputFormula(char[] formula)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>validate.c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool validateCalcResult(double clacResult)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void toPolishNotation(char[] formula)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>double calcPolishNotation(char[] polishFormula)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>double : 計算結果</t>
+    <rPh sb="9" eb="11">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 引数を後置記法に変換する。
+ 1.1. 引数の配列を先頭から順に読んでいく
+  - [「(」の場合]、配列Bの後尾に格納。
+  - [「)」の場合]、配列Bの後尾から「(」がでるまで検索し、
+     配列Aの後尾に格納(「()」は含まない)。
+  - [数字の場合]、配列Aの後尾に格納。
+  - [演算子の場合]、配列Bの後尾に格納。
+     格納する際に後尾の演算子と優先順位を比較し、低ければ
+     配列B後尾を配列Aの後尾に格納。
+ 1.2. 引数の配列を全て読んだら、配列Bを後尾から順に配列A  
+        の後尾に格納。
+2. 結果が配列Aに格納される。
+配列A : 結果用
+配列B : 一時保管用
+演算子の優先順位 : 「/」 &gt; 「*」 &gt; 「+」=「-」</t>
+    <rPh sb="3" eb="5">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>コウビ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>コウビ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>コウビ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>コウビ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="154" eb="157">
+      <t>エンザンシ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>コウビ</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="182" eb="183">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>コウビ</t>
+    </rPh>
+    <rPh sb="187" eb="190">
+      <t>エンザンシ</t>
+    </rPh>
+    <rPh sb="191" eb="193">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="193" eb="195">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="200" eb="201">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="210" eb="212">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="213" eb="215">
+      <t>コウビ</t>
+    </rPh>
+    <rPh sb="220" eb="222">
+      <t>コウビ</t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="236" eb="238">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="239" eb="240">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="241" eb="242">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="246" eb="248">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="250" eb="252">
+      <t>コウビ</t>
+    </rPh>
+    <rPh sb="254" eb="255">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="256" eb="258">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="271" eb="273">
+      <t>コウビ</t>
+    </rPh>
+    <rPh sb="274" eb="276">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="281" eb="283">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="284" eb="286">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="288" eb="290">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="296" eb="298">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="302" eb="304">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="304" eb="305">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="306" eb="308">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="312" eb="314">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="314" eb="316">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="316" eb="317">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="318" eb="321">
+      <t>エンザンシ</t>
+    </rPh>
+    <rPh sb="322" eb="324">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="324" eb="326">
+      <t>ジュンイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4325,7 +4299,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4343,34 +4317,34 @@
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="198" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4379,34 +4353,34 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="308.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -4415,16 +4389,16 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -4436,13 +4410,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -4455,14 +4429,12 @@
       <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -4476,7 +4448,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/calc/doc/詳細設計仕様書.xlsx
+++ b/calc/doc/詳細設計仕様書.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
   <si>
     <t>書式</t>
     <rPh sb="0" eb="2">
@@ -41,20 +41,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>意味</t>
-    <rPh sb="0" eb="2">
-      <t>イミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チェックしたい式</t>
-    <rPh sb="7" eb="8">
-      <t>シキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>戻り値</t>
     <rPh sb="0" eb="1">
       <t>モド</t>
@@ -111,41 +97,6 @@
   </si>
   <si>
     <t>char[] formula</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>四則演算したい後置記法の式</t>
-    <rPh sb="0" eb="2">
-      <t>シソク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>エンザン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウチ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キホウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>シキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>後置記法に変換したい式</t>
-    <rPh sb="0" eb="2">
-      <t>コウチ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>シキ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -344,45 +295,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チェックしたい四則演算結果</t>
-    <rPh sb="7" eb="9">
-      <t>シソク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>エンザン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>int calcResult</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. 引数の桁数を確認
- -異常なら適切なメッセージを変数に格納。
-   falseを戻り値として返す。
-2. tureを戻り値として返す。</t>
-    <rPh sb="3" eb="5">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケタスウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>カエ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -630,10 +543,6 @@
   </si>
   <si>
     <t>validate.c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bool validateCalcResult(double clacResult)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -852,6 +761,734 @@
     </rPh>
     <rPh sb="324" eb="326">
       <t>ジュンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックしたい式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意味</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後置記法に変換したい式</t>
+  </si>
+  <si>
+    <t>四則演算したい後置記法の式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックしたい四則演算結果</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意味</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char* stack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int* sp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列の添字</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値を追加したい配列</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加したい値</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>polishnotation.c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>polishnotation.c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char popChar(char* stack, int* sp)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 配列に添字を用いて値を後尾に追加。
+2. 添字をインクリメント。</t>
+    <rPh sb="3" eb="5">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウビ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 配列から添字を用いて値を後尾から取得。
+2. 添字をデクリメント。</t>
+    <rPh sb="15" eb="17">
+      <t>コウビ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値を追加したい配列</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int* sp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void pushChar(char* stack, char data, int* sp)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char : 配列後尾の値</t>
+    <rPh sb="7" eb="9">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウビ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void pushDouble(double* stack, double data, int* sp)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>double* stack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>double data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char popDouble(char* stack, int* sp)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>double : 配列後尾の値</t>
+    <rPh sb="9" eb="11">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウビ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int calcPriority(char op)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char op</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数に指定された演算子の優先度を返す。
+演算子の優先度 : 「/」 &gt; 「*」 &gt; 「+」=「-」
+                                 3    &gt;     2     &gt;     1</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エンザン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先度が知りたい演算子</t>
+    <rPh sb="0" eb="2">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エンザン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int : 演算子の優先度</t>
+    <rPh sb="6" eb="8">
+      <t>エンザン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ユウセンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void pushOperator(char op)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数で指定された演算子を配列Bに格納済みの演算子と優先度で比較して配列Bに追加。
+引数の優先度が高い場合は、配列Bの演算子を配列Aに追加を繰り返す。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エンザン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>エンザン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>ユウセンド</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>エンザン</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列に追加したい演算子</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エンザン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 引数の桁数を確認。
+ -[異常な場合]、適切なメッセージを変数に格納。
+   falseを戻り値として返す。
+2. tureを戻り値として返す。</t>
+    <rPh sb="3" eb="5">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケタスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 配列Bから演算子取得。
+2. 取得した演算子と引数の優先度を関数を用いて比較する。
+ -[引数が高い場合]、引数と取得した配列Bの演算子を配列Bに追加して終了。
+ -[引数が低い場合]、取得した演算子を配列Aに追加。繰り返し。
+</t>
+    <rPh sb="3" eb="5">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エンザン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>エンザン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="68" eb="71">
+      <t>エンザンシ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>エンザン</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>double calcFormula(char op, double figA, double figB)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>double figA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算対象</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>double figB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>double : 計算結果</t>
+    <rPh sb="9" eb="11">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数で指定された演算子、値を用いて四則演算を行い結果を返す。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エンザン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シソク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>エンザン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算に使う四則演算子</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シソク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>エンザン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool checkValidFormula(char* formula)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>validate.c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char* formula</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検証対象の文字列</t>
+    <rPh sb="0" eb="2">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数で指定された文字列が数式として妥当かどうかを検証して、結果を返す。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ダトウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool validateCalcResult(double clacResult)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数に指定されたポインタ、添字を用いて値を配列の後尾から取得する。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数に指定されたポインタ、値、添字を用いて値を配列の後尾に追加する。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 引数のポインタを用いて先頭から順に読んでいく。
+ - [数式以外] return false;
+2. return true;</t>
+    <rPh sb="3" eb="5">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イガイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -885,7 +1522,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1054,13 +1691,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1103,14 +1764,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4296,10 +4975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4309,146 +4988,422 @@
     <col min="4" max="4" width="52.375" customWidth="1"/>
     <col min="5" max="5" width="53.25" customWidth="1"/>
     <col min="6" max="6" width="50.375" customWidth="1"/>
+    <col min="7" max="7" width="40.375" customWidth="1"/>
+    <col min="8" max="8" width="44.375" customWidth="1"/>
+    <col min="9" max="9" width="47.375" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="47.875" customWidth="1"/>
+    <col min="12" max="12" width="40.5" customWidth="1"/>
+    <col min="13" max="13" width="49.5" customWidth="1"/>
+    <col min="14" max="14" width="36.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>30</v>
+        <v>76</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="B2" s="10"/>
       <c r="C2" s="12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="198" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" ht="198" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="308.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" ht="308.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="B4" s="14"/>
       <c r="C4" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="13"/>
+      <c r="N4" s="11" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
+      <c r="C5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="8"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="8"/>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>22</v>
+      <c r="C11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
+    <row r="12" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="8"/>
+      <c r="B12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="8"/>
-      <c r="B8" s="4" t="s">
+      <c r="C12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="5" t="s">
-        <v>21</v>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
